--- a/2._ProcessedData/tablas.xlsx
+++ b/2._ProcessedData/tablas.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_gutierrezj_uniandes_edu_co/Documents/Septimo Semestre/HE BC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/e_ariasd_uniandes_edu_co/Documents/HE2 – Talleres/Proyecto/FX-Intervention/2._ProcessedData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{FE4642FF-CEE6-4513-8C7E-B0F009500D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46751959-E71C-4161-A0F7-591406B13F1D}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{FE4642FF-CEE6-4513-8C7E-B0F009500D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D37E7D1-AFB4-441E-8A47-6F72E450C3FC}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="90" windowWidth="18160" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="300" windowWidth="18160" windowHeight="9900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
-    <sheet name="Tab" sheetId="2" r:id="rId2"/>
+    <sheet name="t5" sheetId="4" r:id="rId2"/>
+    <sheet name="Tab" sheetId="2" r:id="rId3"/>
+    <sheet name="stat_w2" sheetId="3" r:id="rId4"/>
+    <sheet name="stat_w10" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true" refMode="R1C1" iterateCount="0" calcOnSave="false" concurrentCalc="false"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="237" uniqueCount="22">
   <si>
     <t>Intervención</t>
   </si>
@@ -105,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -417,102 +420,96 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -533,7 +530,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -684,7 +681,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -708,9 +705,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -734,7 +731,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -769,7 +766,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -787,7 +784,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -812,7 +809,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -828,25 +825,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="12.36328125" customWidth="1"/>
-    <col min="15" max="15" width="12.08984375" customWidth="1"/>
-    <col min="16" max="17" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true"/>
+    <col min="10" max="10" width="15.7265625" customWidth="true"/>
+    <col min="11" max="11" width="11.81640625" customWidth="true"/>
+    <col min="14" max="14" width="12.36328125" customWidth="true"/>
+    <col min="15" max="15" width="12.08984375" customWidth="true"/>
+    <col min="16" max="17" width="11.90625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1"/>
-    <row r="2" spans="2:17" ht="29.5" thickBot="1">
+    <row r="1" ht="15" thickBot="true"/>
+    <row r="2" ht="29.5" thickBot="true">
       <c r="I2" t="s">
         <v>8</v>
       </c>
@@ -875,7 +872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3">
       <c r="B3">
         <v>14</v>
       </c>
@@ -885,7 +882,7 @@
       <c r="D3">
         <v>0.4972451580988469</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="17" t="s">
@@ -915,8 +912,8 @@
         <v>0.79006730675705683</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="15" thickBot="1">
-      <c r="J4" s="33"/>
+    <row r="4" ht="15" thickBot="true">
+      <c r="J4" s="28"/>
       <c r="K4" s="18" t="s">
         <v>14</v>
       </c>
@@ -941,7 +938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5">
       <c r="B5">
         <v>33</v>
       </c>
@@ -951,7 +948,7 @@
       <c r="D5">
         <v>0.50751921892255225</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="17" t="s">
@@ -981,7 +978,7 @@
         <v>0.5224462547732156</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="15" thickBot="1">
+    <row r="6" ht="15" thickBot="true">
       <c r="B6">
         <v>5</v>
       </c>
@@ -991,7 +988,7 @@
       <c r="D6">
         <v>0.54772255750516619</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="18" t="s">
         <v>14</v>
       </c>
@@ -1019,7 +1016,7 @@
         <v>0.63900965042269364</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7">
       <c r="B7">
         <v>22</v>
       </c>
@@ -1029,7 +1026,7 @@
       <c r="D7">
         <v>0.49236596391733095</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -1059,7 +1056,7 @@
         <v>0.78470825499324615</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15" thickBot="1">
+    <row r="8" ht="15" thickBot="true">
       <c r="B8">
         <v>16</v>
       </c>
@@ -1069,7 +1066,7 @@
       <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="18" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1094,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9">
       <c r="B9">
         <v>14</v>
       </c>
@@ -1107,7 +1104,7 @@
       <c r="D9">
         <v>0.4972451580988469</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="29" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="19" t="s">
@@ -1137,8 +1134,8 @@
         <v>0.79006730675705683</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15" thickBot="1">
-      <c r="J10" s="33"/>
+    <row r="10" ht="15" thickBot="true">
+      <c r="J10" s="28"/>
       <c r="K10" s="18" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="15" thickBot="1">
+    <row r="11" ht="15" thickBot="true">
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1173,7 +1170,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="2:17" ht="43.5" customHeight="1" thickBot="1">
+    <row r="12" ht="43.5" customHeight="true" thickBot="true">
       <c r="I12" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13">
       <c r="B13">
         <v>14</v>
       </c>
@@ -1212,7 +1209,7 @@
       <c r="D13">
         <v>0.51355259101309547</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="17" t="s">
@@ -1242,8 +1239,8 @@
         <v>0.62589222029721014</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="15" thickBot="1">
-      <c r="J14" s="33"/>
+    <row r="14" ht="15" thickBot="true">
+      <c r="J14" s="28"/>
       <c r="K14" s="18" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="14.5" customHeight="1">
+    <row r="15" ht="14.5" customHeight="true">
       <c r="B15">
         <v>33</v>
       </c>
@@ -1278,7 +1275,7 @@
       <c r="D15">
         <v>0.45226701686664544</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="27" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="17" t="s">
@@ -1308,7 +1305,7 @@
         <v>5.0251890762960556E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="15" thickBot="1">
+    <row r="16" ht="15" thickBot="true">
       <c r="B16">
         <v>5</v>
       </c>
@@ -1318,7 +1315,7 @@
       <c r="D16">
         <v>0.44721359549995798</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="18" t="s">
         <v>14</v>
       </c>
@@ -1346,7 +1343,7 @@
         <v>-0.11180339887498945</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="14.5" customHeight="1">
+    <row r="17" ht="14.5" customHeight="true">
       <c r="B17">
         <v>22</v>
       </c>
@@ -1356,7 +1353,7 @@
       <c r="D17">
         <v>0.50964719143762549</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="27" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="17" t="s">
@@ -1386,7 +1383,7 @@
         <v>0.57972368026029908</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1">
+    <row r="18" ht="15" thickBot="true">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1396,7 +1393,7 @@
       <c r="D18">
         <v>0.5163977794943222</v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="18" t="s">
         <v>14</v>
       </c>
@@ -1424,7 +1421,7 @@
         <v>0.48412291827592718</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19">
       <c r="B19">
         <v>14</v>
       </c>
@@ -1434,7 +1431,7 @@
       <c r="D19">
         <v>0.49724515809884684</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="29" t="s">
         <v>12</v>
       </c>
       <c r="K19" s="19" t="s">
@@ -1464,8 +1461,8 @@
         <v>0.21547290184283371</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1">
-      <c r="J20" s="33"/>
+    <row r="20" ht="15" thickBot="true">
+      <c r="J20" s="28"/>
       <c r="K20" s="18" t="s">
         <v>14</v>
       </c>
@@ -1490,8 +1487,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="15" thickBot="1"/>
-    <row r="22" spans="2:17" ht="29.5" thickBot="1">
+    <row r="21" ht="15" thickBot="true"/>
+    <row r="22" ht="29.5" thickBot="true">
       <c r="I22" t="s">
         <v>18</v>
       </c>
@@ -1520,7 +1517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23">
       <c r="B23">
         <v>14</v>
       </c>
@@ -1530,7 +1527,7 @@
       <c r="D23">
         <v>0.42581531362632008</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K23" s="17" t="s">
@@ -1560,8 +1557,8 @@
         <v>1.258090699350491</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15" thickBot="1">
-      <c r="J24" s="33"/>
+    <row r="24" ht="15" thickBot="true">
+      <c r="J24" s="28"/>
       <c r="K24" s="18" t="s">
         <v>14</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="14.5" customHeight="1">
+    <row r="25" ht="14.5" customHeight="true">
       <c r="B25">
         <v>33</v>
       </c>
@@ -1596,7 +1593,7 @@
       <c r="D25">
         <v>0.50564989684743156</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="J25" s="27" t="s">
         <v>10</v>
       </c>
       <c r="K25" s="17" t="s">
@@ -1626,7 +1623,7 @@
         <v>0.58430654746814303</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1">
+    <row r="26" ht="15" thickBot="true">
       <c r="B26">
         <v>5</v>
       </c>
@@ -1636,7 +1633,7 @@
       <c r="D26">
         <v>0.44721359549995793</v>
       </c>
-      <c r="J26" s="33"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="18" t="s">
         <v>14</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>1.2298373876248845</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="14.5" customHeight="1">
+    <row r="27" ht="14.5" customHeight="true">
       <c r="B27">
         <v>22</v>
       </c>
@@ -1674,7 +1671,7 @@
       <c r="D27">
         <v>0.39477101697586142</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="27" t="s">
         <v>11</v>
       </c>
       <c r="K27" s="17" t="s">
@@ -1704,7 +1701,7 @@
         <v>1.4392693327244948</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="15" thickBot="1">
+    <row r="28" ht="15" thickBot="true">
       <c r="B28">
         <v>16</v>
       </c>
@@ -1714,7 +1711,7 @@
       <c r="D28">
         <v>0.44721359549995793</v>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="18" t="s">
         <v>14</v>
       </c>
@@ -1742,7 +1739,7 @@
         <v>1.1180339887498949</v>
       </c>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29">
       <c r="B29">
         <v>14</v>
       </c>
@@ -1752,7 +1749,7 @@
       <c r="D29">
         <v>0.4972451580988469</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="29" t="s">
         <v>12</v>
       </c>
       <c r="K29" s="19" t="s">
@@ -1782,8 +1779,8 @@
         <v>0.79006730675705683</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="15" thickBot="1">
-      <c r="J30" s="33"/>
+    <row r="30" ht="15" thickBot="true">
+      <c r="J30" s="28"/>
       <c r="K30" s="18" t="s">
         <v>14</v>
       </c>
@@ -1808,8 +1805,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="15" thickBot="1"/>
-    <row r="32" spans="2:17" ht="60" customHeight="1" thickBot="1">
+    <row r="31" ht="15" thickBot="true"/>
+    <row r="32" ht="60" customHeight="true" thickBot="true">
       <c r="I32" t="s">
         <v>19</v>
       </c>
@@ -1825,14 +1822,14 @@
       <c r="M32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="25" t="s">
+      <c r="N32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="26" t="s">
+      <c r="O32" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33">
       <c r="B33">
         <v>14</v>
       </c>
@@ -1842,7 +1839,7 @@
       <c r="D33">
         <v>70.571745683208306</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="J33" s="30" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="4" t="s">
@@ -1855,17 +1852,17 @@
         <f>B33</f>
         <v>14</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="25">
         <f>C33</f>
         <v>-29.7758572442191</v>
       </c>
-      <c r="O33" s="28">
+      <c r="O33" s="26">
         <f>N33/D33</f>
         <v>-0.42192320674453582</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="15" thickBot="1">
-      <c r="J34" s="30"/>
+    <row r="34" ht="15" thickBot="true">
+      <c r="J34" s="31"/>
       <c r="K34" s="6" t="s">
         <v>14</v>
       </c>
@@ -1883,7 +1880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35">
       <c r="B35">
         <v>33</v>
       </c>
@@ -1893,7 +1890,7 @@
       <c r="D35">
         <v>33.609355606772887</v>
       </c>
-      <c r="J35" s="29" t="s">
+      <c r="J35" s="30" t="s">
         <v>10</v>
       </c>
       <c r="K35" s="4" t="s">
@@ -1906,16 +1903,16 @@
         <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="N35" s="27">
-        <f t="shared" ref="N34:N40" si="16">C35</f>
+      <c r="N35" s="25">
+        <f t="shared" ref="N35:N39" si="16">C35</f>
         <v>-25.713696786851592</v>
       </c>
-      <c r="O35" s="28">
+      <c r="O35" s="26">
         <f t="shared" ref="O35:O39" si="17">N35/D35</f>
         <v>-0.76507556668744403</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="15" thickBot="1">
+    <row r="36" ht="15" thickBot="true">
       <c r="B36">
         <v>5</v>
       </c>
@@ -1925,7 +1922,7 @@
       <c r="D36">
         <v>31.461423028349042</v>
       </c>
-      <c r="J36" s="30"/>
+      <c r="J36" s="31"/>
       <c r="K36" s="6" t="s">
         <v>14</v>
       </c>
@@ -1945,7 +1942,7 @@
         <v>-0.63989474064528251</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37">
       <c r="B37">
         <v>22</v>
       </c>
@@ -1955,7 +1952,7 @@
       <c r="D37">
         <v>31.223672676544666</v>
       </c>
-      <c r="J37" s="29" t="s">
+      <c r="J37" s="30" t="s">
         <v>11</v>
       </c>
       <c r="K37" s="4" t="s">
@@ -1968,16 +1965,16 @@
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="25">
         <f t="shared" si="16"/>
         <v>-46.346454707058996</v>
       </c>
-      <c r="O37" s="28">
+      <c r="O37" s="26">
         <f t="shared" si="17"/>
         <v>-1.4843370665320423</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="15" thickBot="1">
+    <row r="38" ht="15" thickBot="true">
       <c r="B38">
         <v>16</v>
       </c>
@@ -1987,7 +1984,7 @@
       <c r="D38">
         <v>49.850545130916146</v>
       </c>
-      <c r="J38" s="30"/>
+      <c r="J38" s="31"/>
       <c r="K38" s="6" t="s">
         <v>14</v>
       </c>
@@ -2007,7 +2004,7 @@
         <v>-1.2696275342395533</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39">
       <c r="B39">
         <v>14</v>
       </c>
@@ -2017,7 +2014,7 @@
       <c r="D39">
         <v>97.901134267717623</v>
       </c>
-      <c r="J39" s="31" t="s">
+      <c r="J39" s="32" t="s">
         <v>12</v>
       </c>
       <c r="K39" s="9" t="s">
@@ -2039,8 +2036,8 @@
         <v>-0.21540535030972041</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="15" thickBot="1">
-      <c r="J40" s="30"/>
+    <row r="40" ht="15" thickBot="true">
+      <c r="J40" s="31"/>
       <c r="K40" s="6" t="s">
         <v>14</v>
       </c>
@@ -2060,6 +2057,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J33:J34"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J15:J16"/>
@@ -2068,35 +2073,888 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J33:J34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F705E748-7A79-420C-AFAF-16896B315E37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF446501-1980-4CE6-8FC3-552ECE3699DC}">
+  <dimension ref="C3:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="3">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="J4">
+        <v>0.28729720245711166</v>
+      </c>
+      <c r="K4">
+        <v>0.79006730675705683</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>0.51515151515151514</v>
+      </c>
+      <c r="J6">
+        <v>2.9854071701326583E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.5224462547732156</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>0.6</v>
+      </c>
+      <c r="J7">
+        <v>0.1825741858350553</v>
+      </c>
+      <c r="K7">
+        <v>0.63900965042269364</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="J8">
+        <v>0.27695585470349859</v>
+      </c>
+      <c r="K8">
+        <v>0.78470825499324615</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>0.625</v>
+      </c>
+      <c r="J9">
+        <v>0.25</v>
+      </c>
+      <c r="K9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="J10">
+        <v>0.28729720245711166</v>
+      </c>
+      <c r="K10">
+        <v>0.79006730675705683</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J14">
+        <v>0.13908716006604666</v>
+      </c>
+      <c r="K14">
+        <v>0.62589222029721014</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="J16">
+        <v>-0.50251890762960605</v>
+      </c>
+      <c r="K16">
+        <v>5.0251890762960556E-2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="J17">
+        <v>-0.67082039324993681</v>
+      </c>
+      <c r="K17">
+        <v>-0.11180339887498945</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="J18">
+        <v>8.9188258501584405E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.57972368026029908</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.48412291827592718</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="J20">
+        <v>-0.28729720245711154</v>
+      </c>
+      <c r="K20">
+        <v>0.21547290184283371</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="J24">
+        <v>0.67098170632026188</v>
+      </c>
+      <c r="K24">
+        <v>1.258090699350491</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>33</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="J26">
+        <v>8.9893314995098866E-2</v>
+      </c>
+      <c r="K26">
+        <v>0.58430654746814303</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>0.8</v>
+      </c>
+      <c r="J27">
+        <v>0.67082039324993703</v>
+      </c>
+      <c r="K27">
+        <v>1.2298373876248845</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>22</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="J28">
+        <v>0.80599082632571706</v>
+      </c>
+      <c r="K28">
+        <v>1.4392693327244948</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>0.75</v>
+      </c>
+      <c r="J29">
+        <v>0.55901699437494745</v>
+      </c>
+      <c r="K29">
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="J30">
+        <v>0.28729720245711166</v>
+      </c>
+      <c r="K30">
+        <v>0.79006730675705683</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>-29.7758572442191</v>
+      </c>
+      <c r="I34">
+        <v>-0.42192320674453582</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>33</v>
+      </c>
+      <c r="H36">
+        <v>-25.713696786851592</v>
+      </c>
+      <c r="I36">
+        <v>-0.76507556668744403</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>20.131999129056929</v>
+      </c>
+      <c r="I37">
+        <v>-0.63989474064528251</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>22</v>
+      </c>
+      <c r="H38">
+        <v>-46.346454707058996</v>
+      </c>
+      <c r="I38">
+        <v>-1.4843370665320423</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>16</v>
+      </c>
+      <c r="H39">
+        <v>63.291624695062637</v>
+      </c>
+      <c r="I39">
+        <v>-1.2696275342395533</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <v>-21.088428122656687</v>
+      </c>
+      <c r="I40">
+        <v>-0.21540535030972041</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F705E748-7A79-420C-AFAF-16896B315E37}">
   <dimension ref="B3:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="true"/>
+    <col min="8" max="8" width="11.26953125" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="11.90625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="29" customHeight="1">
+    <row r="3" ht="29" customHeight="true">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2126,8 +2984,8 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="C4" s="35" t="s">
+    <row r="4">
+      <c r="C4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2155,8 +3013,8 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11">
-      <c r="C5" s="35"/>
+    <row r="5">
+      <c r="C5" s="33"/>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2180,8 +3038,8 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" ht="20.5" customHeight="1">
-      <c r="C6" s="35" t="s">
+    <row r="6" ht="20.5" customHeight="true">
+      <c r="C6" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2209,8 +3067,8 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" ht="19.5" customHeight="1">
-      <c r="C7" s="35"/>
+    <row r="7" ht="19.5" customHeight="true">
+      <c r="C7" s="33"/>
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2235,8 +3093,8 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11">
-      <c r="C8" s="35" t="s">
+    <row r="8">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2252,8 +3110,8 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:11">
-      <c r="C9" s="35"/>
+    <row r="9">
+      <c r="C9" s="33"/>
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2267,8 +3125,8 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11">
-      <c r="C10" s="35" t="s">
+    <row r="10">
+      <c r="C10" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2284,8 +3142,8 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="2:11">
-      <c r="C11" s="35"/>
+    <row r="11">
+      <c r="C11" s="33"/>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2318,4 +3176,506 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B13:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="13">
+      <c r="B13">
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.14433756729740643</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0.42365927286816174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0.3007926037591192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.16012815380508713</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>0.40975753143523935</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>0.49420399497827033</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0.54772255750516619</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>0.48038446141526142</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>0.49761335152811931</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>0.48597051498058941</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33">
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <v>1155.9017936800733</v>
+      </c>
+      <c r="D33">
+        <v>56.225334776950127</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>-16.375104249144595</v>
+      </c>
+      <c r="D35">
+        <v>23.09338073883255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>21.708999538421629</v>
+      </c>
+      <c r="D36">
+        <v>41.04795293722546</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>-32.287592525835393</v>
+      </c>
+      <c r="D37">
+        <v>23.3311890882078</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>43.481190431685675</v>
+      </c>
+      <c r="D38">
+        <v>31.507489151400737</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>-7.8897437132321873</v>
+      </c>
+      <c r="D39">
+        <v>73.623881745805605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B3:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="3">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0.46291004988627571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0.48507125007266594</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>0.50262468995003462</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.53452248382484879</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>0.46291004988627571</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15"/>
+    </row>
+    <row r="16">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>0.48507125007266594</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>0.50262468995003462</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0.4879500364742666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>0.46291004988627571</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25"/>
+    </row>
+    <row r="26">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>0.23570226039551584</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>0.30779350562554619</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0.53452248382484879</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>9085.1634521484375</v>
+      </c>
+      <c r="D33">
+        <v>645.36057075350573</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>11918.8779296875</v>
+      </c>
+      <c r="D36">
+        <v>401.34229506356837</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>8216.5161675347226</v>
+      </c>
+      <c r="D37">
+        <v>894.79313472510603</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>9873.0181152343757</v>
+      </c>
+      <c r="D38">
+        <v>864.90641051194746</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>14562.672293526786</v>
+      </c>
+      <c r="D39">
+        <v>717.48794548636056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>